--- a/biology/Zoologie/Clymenia_(zoologie)/Clymenia_(zoologie).xlsx
+++ b/biology/Zoologie/Clymenia_(zoologie)/Clymenia_(zoologie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clymenia est un genre éteint de mollusques céphalopodes de la sous-classe des Ammonoidea.
 Le genre est connu au Maroc, au Kazakhstan et en Australie. Il est caractéristique du Famennien, dernier étage du Dévonien supérieur, daté d'environ 360 Ma (millions d'années). 
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme toutes les Clymeniida, le genre Clymenia possède un siphon en position dorsale [1]. La coquille des Clymenia a un diamètre de quelques centimètres, elle est caractérisée par une croissance lente et donc un enroulement très évolute (ombilic large). Les parois sont lisses, sans aucun sillon, avec des lignes de sutures simples.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme toutes les Clymeniida, le genre Clymenia possède un siphon en position dorsale . La coquille des Clymenia a un diamètre de quelques centimètres, elle est caractérisée par une croissance lente et donc un enroulement très évolute (ombilic large). Les parois sont lisses, sans aucun sillon, avec des lignes de sutures simples.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La classification classique des clyménies (1957)[2] a été modifiée plusieurs fois. La base de données spécialisée dans les Ammonoidea du Paléozoïque, « GONIAT »[3] donne la position taxinomique suivante pour le genre Clymenia :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La classification classique des clyménies (1957) a été modifiée plusieurs fois. La base de données spécialisée dans les Ammonoidea du Paléozoïque, « GONIAT » donne la position taxinomique suivante pour le genre Clymenia :
 Ordre Clymeniida Hyatt, 1884
 Sous-ordre Clymeniina Hyatt, 1884
 Super-famille Clymeniaceae Edwards, 1849
